--- a/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -64,7 +64,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -97,26 +97,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993399"/>
-        <bgColor rgb="FF993399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
         <bgColor rgb="FF66FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,10 +183,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">

--- a/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -64,7 +64,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -97,14 +97,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
         <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
   </fills>
@@ -183,10 +195,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
